--- a/src/Excel/BuscarCuenta.xlsx
+++ b/src/Excel/BuscarCuenta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A85C828-6DA1-4D97-B3CD-8AA827A31695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D73FA-3ECB-44F7-884F-B191B4059103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Usuario</t>
   </si>
@@ -29,61 +29,31 @@
     <t>123456</t>
   </si>
   <si>
-    <t>AA230325B7T0</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
     <t>arreglo</t>
   </si>
   <si>
-    <t>SCISNER</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>AAACT230621L2CHVK</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:14:46</t>
+  </si>
+  <si>
+    <t>AA23065PFP8K</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 11:23:55</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 11:24:21</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 11:24:29</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:12:59</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:13:22</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:13:28</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:22:22</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:22:45</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:22:50</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:30:23</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:30:46</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:30:53</t>
+    <t>6 mar. 2023, 11:19:43</t>
   </si>
 </sst>
 </file>
@@ -154,14 +124,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -513,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A91A77-E5B6-4AE4-A13D-A81F28ECF0AB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
@@ -535,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -551,48 +521,14 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -613,11 +549,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Excel/BuscarCuenta.xlsx
+++ b/src/Excel/BuscarCuenta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Usuario</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>6 mar. 2023, 11:19:43</t>
+  </si>
+  <si>
+    <t>AA23065N5BKS</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>

--- a/src/Excel/BuscarCuenta.xlsx
+++ b/src/Excel/BuscarCuenta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D73FA-3ECB-44F7-884F-B191B4059103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB75C8-4697-4E47-81E4-98C94E25803C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Usuario</t>
   </si>
@@ -38,32 +38,19 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>AAACT230621L2CHVK</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 11:14:46</t>
-  </si>
-  <si>
-    <t>AA23065PFP8K</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>6 mar. 2023, 11:19:43</t>
-  </si>
-  <si>
-    <t>AA23065N5BKS</t>
+    <t>AA23066FBZCJ</t>
+  </si>
+  <si>
+    <t>7 mar. 2023, 10:06:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,15 +476,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -525,13 +512,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
